--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>216.5832213333333</v>
+        <v>546.7765096666667</v>
       </c>
       <c r="H2">
-        <v>649.7496640000001</v>
+        <v>1640.329529</v>
       </c>
       <c r="I2">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="J2">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>21430.20022430025</v>
+        <v>91918.504629986</v>
       </c>
       <c r="R2">
-        <v>192871.8020187022</v>
+        <v>827266.541669874</v>
       </c>
       <c r="S2">
-        <v>0.09087342707871918</v>
+        <v>0.1875715654405607</v>
       </c>
       <c r="T2">
-        <v>0.09087342707871918</v>
+        <v>0.1875715654405608</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>216.5832213333333</v>
+        <v>546.7765096666667</v>
       </c>
       <c r="H3">
-        <v>649.7496640000001</v>
+        <v>1640.329529</v>
       </c>
       <c r="I3">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="J3">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>35304.41561810716</v>
+        <v>89127.98059172212</v>
       </c>
       <c r="R3">
-        <v>317739.7405629645</v>
+        <v>802151.8253254991</v>
       </c>
       <c r="S3">
-        <v>0.1497061718812575</v>
+        <v>0.1818771411854699</v>
       </c>
       <c r="T3">
-        <v>0.1497061718812575</v>
+        <v>0.1818771411854699</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>216.5832213333333</v>
+        <v>546.7765096666667</v>
       </c>
       <c r="H4">
-        <v>649.7496640000001</v>
+        <v>1640.329529</v>
       </c>
       <c r="I4">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="J4">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>31247.06705283566</v>
+        <v>90761.36296064913</v>
       </c>
       <c r="R4">
-        <v>281223.603475521</v>
+        <v>816852.2666458421</v>
       </c>
       <c r="S4">
-        <v>0.132501238417264</v>
+        <v>0.1852102686023698</v>
       </c>
       <c r="T4">
-        <v>0.132501238417264</v>
+        <v>0.1852102686023698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>216.5832213333333</v>
+        <v>546.7765096666667</v>
       </c>
       <c r="H5">
-        <v>649.7496640000001</v>
+        <v>1640.329529</v>
       </c>
       <c r="I5">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="J5">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>14163.69944452495</v>
+        <v>36211.22264540161</v>
       </c>
       <c r="R5">
-        <v>127473.2950007245</v>
+        <v>325901.0038086144</v>
       </c>
       <c r="S5">
-        <v>0.06006028385947852</v>
+        <v>0.07389367076255597</v>
       </c>
       <c r="T5">
-        <v>0.06006028385947852</v>
+        <v>0.07389367076255597</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>485.864922</v>
       </c>
       <c r="I6">
-        <v>0.3238910133313607</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="J6">
-        <v>0.3238910133313606</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>16024.91411280518</v>
+        <v>27226.22271491449</v>
       </c>
       <c r="R6">
-        <v>144224.2270152466</v>
+        <v>245036.0044342304</v>
       </c>
       <c r="S6">
-        <v>0.06795264854415466</v>
+        <v>0.05555861941213393</v>
       </c>
       <c r="T6">
-        <v>0.06795264854415466</v>
+        <v>0.05555861941213394</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>485.864922</v>
       </c>
       <c r="I7">
-        <v>0.3238910133313607</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="J7">
-        <v>0.3238910133313606</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>26399.67065923287</v>
@@ -883,10 +883,10 @@
         <v>237597.0359330958</v>
       </c>
       <c r="S7">
-        <v>0.111946156426186</v>
+        <v>0.05387193332399084</v>
       </c>
       <c r="T7">
-        <v>0.111946156426186</v>
+        <v>0.05387193332399084</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>485.864922</v>
       </c>
       <c r="I8">
-        <v>0.3238910133313607</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="J8">
-        <v>0.3238910133313606</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>23365.69703305728</v>
+        <v>26883.47783531822</v>
       </c>
       <c r="R8">
-        <v>210291.2732975156</v>
+        <v>241951.300517864</v>
       </c>
       <c r="S8">
-        <v>0.09908078054582473</v>
+        <v>0.05485920427400259</v>
       </c>
       <c r="T8">
-        <v>0.09908078054582473</v>
+        <v>0.05485920427400259</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>485.864922</v>
       </c>
       <c r="I9">
-        <v>0.3238910133313607</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="J9">
-        <v>0.3238910133313606</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>10591.22475490123</v>
+        <v>10725.74903705991</v>
       </c>
       <c r="R9">
-        <v>95321.02279411105</v>
+        <v>96531.74133353916</v>
       </c>
       <c r="S9">
-        <v>0.04491142781519528</v>
+        <v>0.02188727444492827</v>
       </c>
       <c r="T9">
-        <v>0.04491142781519528</v>
+        <v>0.02188727444492827</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>121.0302313333333</v>
+        <v>160.630483</v>
       </c>
       <c r="H10">
-        <v>363.090694</v>
+        <v>481.891449</v>
       </c>
       <c r="I10">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="J10">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>11975.54489539549</v>
+        <v>27003.56276159993</v>
       </c>
       <c r="R10">
-        <v>107779.9040585594</v>
+        <v>243032.0648543994</v>
       </c>
       <c r="S10">
-        <v>0.0507815510069591</v>
+        <v>0.0551042530560639</v>
       </c>
       <c r="T10">
-        <v>0.0507815510069591</v>
+        <v>0.05510425305606392</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>121.0302313333333</v>
+        <v>160.630483</v>
       </c>
       <c r="H11">
-        <v>363.090694</v>
+        <v>481.891449</v>
       </c>
       <c r="I11">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="J11">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>19728.68241151252</v>
+        <v>26183.77036714849</v>
       </c>
       <c r="R11">
-        <v>177558.1417036127</v>
+        <v>235653.9333043364</v>
       </c>
       <c r="S11">
-        <v>0.08365824694670265</v>
+        <v>0.05343136092860257</v>
       </c>
       <c r="T11">
-        <v>0.08365824694670265</v>
+        <v>0.05343136092860257</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>121.0302313333333</v>
+        <v>160.630483</v>
       </c>
       <c r="H12">
-        <v>363.090694</v>
+        <v>481.891449</v>
       </c>
       <c r="I12">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="J12">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>17461.36995567363</v>
+        <v>26663.62089877499</v>
       </c>
       <c r="R12">
-        <v>157152.3296010627</v>
+        <v>239972.5880889749</v>
       </c>
       <c r="S12">
-        <v>0.07404384992923033</v>
+        <v>0.05441055783522093</v>
       </c>
       <c r="T12">
-        <v>0.07404384992923033</v>
+        <v>0.05441055783522093</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>121.0302313333333</v>
+        <v>160.630483</v>
       </c>
       <c r="H13">
-        <v>363.090694</v>
+        <v>481.891449</v>
       </c>
       <c r="I13">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="J13">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>7914.90591816601</v>
+        <v>10638.03232347602</v>
       </c>
       <c r="R13">
-        <v>71234.1532634941</v>
+        <v>95742.29091128414</v>
       </c>
       <c r="S13">
-        <v>0.03356266475633769</v>
+        <v>0.0217082771761143</v>
       </c>
       <c r="T13">
-        <v>0.03356266475633769</v>
+        <v>0.0217082771761143</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4608033333333333</v>
+        <v>0.5357470000000001</v>
       </c>
       <c r="H14">
-        <v>1.38241</v>
+        <v>1.607241</v>
       </c>
       <c r="I14">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="J14">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>45.59498024161333</v>
+        <v>90.06433566435135</v>
       </c>
       <c r="R14">
-        <v>410.35482217452</v>
+        <v>810.579020979162</v>
       </c>
       <c r="S14">
-        <v>0.0001933426691666472</v>
+        <v>0.0001837878944933949</v>
       </c>
       <c r="T14">
-        <v>0.0001933426691666472</v>
+        <v>0.000183787894493395</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4608033333333333</v>
+        <v>0.5357470000000001</v>
       </c>
       <c r="H15">
-        <v>1.38241</v>
+        <v>1.607241</v>
       </c>
       <c r="I15">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="J15">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>75.11381674931889</v>
+        <v>87.33010173970968</v>
       </c>
       <c r="R15">
-        <v>676.0243507438699</v>
+        <v>785.9709156573871</v>
       </c>
       <c r="S15">
-        <v>0.0003185154537769321</v>
+        <v>0.0001782083374761193</v>
       </c>
       <c r="T15">
-        <v>0.0003185154537769321</v>
+        <v>0.0001782083374761193</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4608033333333333</v>
+        <v>0.5357470000000001</v>
       </c>
       <c r="H16">
-        <v>1.38241</v>
+        <v>1.607241</v>
       </c>
       <c r="I16">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="J16">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>66.48138561332222</v>
+        <v>88.93053571691001</v>
       </c>
       <c r="R16">
-        <v>598.3324705199</v>
+        <v>800.3748214521901</v>
       </c>
       <c r="S16">
-        <v>0.0002819101680988477</v>
+        <v>0.0001814742294496251</v>
       </c>
       <c r="T16">
-        <v>0.0002819101680988478</v>
+        <v>0.0001814742294496251</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4608033333333333</v>
+        <v>0.5357470000000001</v>
       </c>
       <c r="H17">
-        <v>1.38241</v>
+        <v>1.607241</v>
       </c>
       <c r="I17">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="J17">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>30.13474393902223</v>
+        <v>35.48077423888034</v>
       </c>
       <c r="R17">
-        <v>271.2126954512</v>
+        <v>319.3269681499231</v>
       </c>
       <c r="S17">
-        <v>0.0001277845016479788</v>
+        <v>7.240309656711741E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001277845016479788</v>
+        <v>7.240309656711741E-05</v>
       </c>
     </row>
   </sheetData>
